--- a/resources/test_data/TestRunner_FileUpload.xlsx
+++ b/resources/test_data/TestRunner_FileUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1114\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99E4632F-86F2-4BBC-A6AE-066E0CA07C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{774EE347-D026-4EB4-BA66-86D5D6480D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>BaseURL</t>
   </si>
   <si>
-    <t>http://demo.guru99.com/test/upload/</t>
+    <t>http://www.csm-testcenter.org/test?do=show&amp;subdo=common&amp;test=file_upload</t>
   </si>
   <si>
     <t>TestCaseNumber</t>
@@ -497,7 +497,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
